--- a/Scenario2_Dalia_bug_reports.xlsx
+++ b/Scenario2_Dalia_bug_reports.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paurush.vishnoi\Desktop\Dalia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paurush.vishnoi\Desktop\DaliaTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05309203-BE8A-442D-B004-6344B0159742}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C314CD-7B5C-4B8F-B34C-9425CB75560E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>Category</t>
   </si>
@@ -115,6 +115,12 @@
     <t>Test Steps</t>
   </si>
   <si>
+    <t>Help Center asks for login even after the user logged into Yuno</t>
+  </si>
+  <si>
+    <t>After login and going to the main page, when user clicks on Help Center page, it again asks for the Signing in even after the user is already signed in</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -194,7 +200,7 @@
         <rFont val="Book Antiqua"/>
         <family val="1"/>
       </rPr>
-      <t>And</t>
+      <t>When</t>
     </r>
     <r>
       <rPr>
@@ -224,7 +230,122 @@
     </r>
   </si>
   <si>
-    <t>Help Center asks for login even after the user logged into Yuno</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I open Yuno page "https://yunosurveys.com/login"
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I enter "paurush.vishnoi@hotmail.com" in email address
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I enter "&lt;enter the respective password&gt;" in password
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I reach on main page
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I click on Help Center
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I see the Sign In page instead of showling as a logged in user</t>
+    </r>
+  </si>
+  <si>
+    <t>User should see himself signed in as a registered user on Help Center page</t>
+  </si>
+  <si>
+    <t>User is still asked to Sign In as an option on top right corner of the page</t>
+  </si>
+  <si>
+    <t>helpCenter.wmv</t>
   </si>
 </sst>
 </file>
@@ -440,7 +561,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -480,8 +601,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -506,9 +633,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -854,14 +979,14 @@
   <dimension ref="A1:E996"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="115.140625" customWidth="1"/>
+    <col min="3" max="3" width="101" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -878,7 +1003,7 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -890,7 +1015,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
@@ -899,7 +1024,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -908,16 +1033,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>29</v>
+      <c r="C5" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -927,7 +1052,7 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
@@ -936,7 +1061,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -947,7 +1072,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -956,7 +1081,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -965,7 +1090,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
@@ -974,7 +1099,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -985,7 +1110,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -3959,44 +4084,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7743D0CE-9D91-484E-8735-D16AEB9FF407}">
-  <dimension ref="A1:C984"/>
+  <dimension ref="A1:C985"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
@@ -4005,7 +4130,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -4013,79 +4138,93 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
+    <row r="5" spans="1:3" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
       <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="C7" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="16" t="s">
+    <row r="9" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+    <row r="10" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C13" s="4"/>
-    </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
     </row>
@@ -6999,14 +7138,20 @@
     <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="4"/>
     </row>
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C985" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{F7B35211-D8C2-4441-BE2D-948B02A175AD}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>